--- a/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H2">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9218602339762</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N2">
-        <v>11.9218602339762</v>
+        <v>51.97477</v>
       </c>
       <c r="O2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q2">
-        <v>195.4345452641757</v>
+        <v>285.9802398983767</v>
       </c>
       <c r="R2">
-        <v>195.4345452641757</v>
+        <v>2573.82215908539</v>
       </c>
       <c r="S2">
-        <v>0.03761300290656792</v>
+        <v>0.03922692237743623</v>
       </c>
       <c r="T2">
-        <v>0.03761300290656792</v>
+        <v>0.03922692237743623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H3">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.53895892256346</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N3">
-        <v>6.53895892256346</v>
+        <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q3">
-        <v>107.1928741363959</v>
+        <v>108.7881845048303</v>
       </c>
       <c r="R3">
-        <v>107.1928741363959</v>
+        <v>979.093660543473</v>
       </c>
       <c r="S3">
-        <v>0.02063015973458347</v>
+        <v>0.01492209976000308</v>
       </c>
       <c r="T3">
-        <v>0.02063015973458347</v>
+        <v>0.01492209976000308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H4">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.169131330974</v>
+        <v>0.111195</v>
       </c>
       <c r="N4">
-        <v>53.169131330974</v>
+        <v>0.333585</v>
       </c>
       <c r="O4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q4">
-        <v>871.5992974105257</v>
+        <v>1.835481298455</v>
       </c>
       <c r="R4">
-        <v>871.5992974105257</v>
+        <v>16.519331686095</v>
       </c>
       <c r="S4">
-        <v>0.1677465304946477</v>
+        <v>0.000251766634104914</v>
       </c>
       <c r="T4">
-        <v>0.1677465304946477</v>
+        <v>0.0002517666341049141</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.7754307549526</v>
+        <v>16.506869</v>
       </c>
       <c r="H5">
-        <v>24.7754307549526</v>
+        <v>49.520607</v>
       </c>
       <c r="I5">
-        <v>0.3415486239080627</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J5">
-        <v>0.3415486239080627</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9218602339762</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N5">
-        <v>11.9218602339762</v>
+        <v>214.856537</v>
       </c>
       <c r="O5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q5">
-        <v>295.3692226971003</v>
+        <v>1182.202903350884</v>
       </c>
       <c r="R5">
-        <v>295.3692226971003</v>
+        <v>10639.82613015796</v>
       </c>
       <c r="S5">
-        <v>0.05684626234732115</v>
+        <v>0.1621586915956291</v>
       </c>
       <c r="T5">
-        <v>0.05684626234732115</v>
+        <v>0.1621586915956291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H6">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.53895892256346</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N6">
-        <v>6.53895892256346</v>
+        <v>51.97477</v>
       </c>
       <c r="O6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q6">
-        <v>162.0055239954505</v>
+        <v>429.3377954840801</v>
       </c>
       <c r="R6">
-        <v>162.0055239954505</v>
+        <v>3864.04015935672</v>
       </c>
       <c r="S6">
-        <v>0.03117930986399626</v>
+        <v>0.05889078344412284</v>
       </c>
       <c r="T6">
-        <v>0.03117930986399626</v>
+        <v>0.05889078344412284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H7">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.169131330974</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N7">
-        <v>53.169131330974</v>
+        <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q7">
-        <v>1317.288131591527</v>
+        <v>163.322050945256</v>
       </c>
       <c r="R7">
-        <v>1317.288131591527</v>
+        <v>1469.898458507304</v>
       </c>
       <c r="S7">
-        <v>0.2535230516967453</v>
+        <v>0.02240232198290988</v>
       </c>
       <c r="T7">
-        <v>0.2535230516967453</v>
+        <v>0.02240232198290988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.0495555559597</v>
+        <v>24.781512</v>
       </c>
       <c r="H8">
-        <v>22.0495555559597</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3039703096349584</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J8">
-        <v>0.3039703096349584</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>11.9218602339762</v>
+        <v>0.111195</v>
       </c>
       <c r="N8">
-        <v>11.9218602339762</v>
+        <v>0.333585</v>
       </c>
       <c r="O8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q8">
-        <v>262.871719559445</v>
+        <v>2.75558022684</v>
       </c>
       <c r="R8">
-        <v>262.871719559445</v>
+        <v>24.80022204156</v>
       </c>
       <c r="S8">
-        <v>0.05059184771289422</v>
+        <v>0.000377973428169239</v>
       </c>
       <c r="T8">
-        <v>0.05059184771289422</v>
+        <v>0.000377973428169239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.0495555559597</v>
+        <v>24.781512</v>
       </c>
       <c r="H9">
-        <v>22.0495555559597</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3039703096349584</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J9">
-        <v>0.3039703096349584</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.53895892256346</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N9">
-        <v>6.53895892256346</v>
+        <v>214.856537</v>
       </c>
       <c r="O9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q9">
-        <v>144.1811380412014</v>
+        <v>1774.823283314648</v>
       </c>
       <c r="R9">
-        <v>144.1811380412014</v>
+        <v>15973.40954983183</v>
       </c>
       <c r="S9">
-        <v>0.02774885861087355</v>
+        <v>0.2434463835438073</v>
       </c>
       <c r="T9">
-        <v>0.02774885861087355</v>
+        <v>0.2434463835438072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H10">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.169131330974</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N10">
-        <v>53.169131330974</v>
+        <v>51.97477</v>
       </c>
       <c r="O10">
-        <v>0.7422751372729526</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P10">
-        <v>0.7422751372729526</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q10">
-        <v>1172.355715144429</v>
+        <v>427.5693943596511</v>
       </c>
       <c r="R10">
-        <v>1172.355715144429</v>
+        <v>3848.12454923686</v>
       </c>
       <c r="S10">
-        <v>0.2256296033111907</v>
+        <v>0.05864821796594577</v>
       </c>
       <c r="T10">
-        <v>0.2256296033111907</v>
+        <v>0.05864821796594577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.320573703100511</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H11">
-        <v>9.320573703100511</v>
+        <v>74.038318</v>
       </c>
       <c r="I11">
-        <v>0.1284913733211799</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J11">
-        <v>0.1284913733211799</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9218602339762</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N11">
-        <v>11.9218602339762</v>
+        <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.1664368068501512</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P11">
-        <v>0.1664368068501512</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q11">
-        <v>111.1185769888383</v>
+        <v>162.6493431110669</v>
       </c>
       <c r="R11">
-        <v>111.1185769888383</v>
+        <v>1463.844087999602</v>
       </c>
       <c r="S11">
-        <v>0.02138569388336788</v>
+        <v>0.02231004897130667</v>
       </c>
       <c r="T11">
-        <v>0.02138569388336788</v>
+        <v>0.02231004897130667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.320573703100511</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H12">
-        <v>9.320573703100511</v>
+        <v>74.038318</v>
       </c>
       <c r="I12">
-        <v>0.1284913733211799</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J12">
-        <v>0.1284913733211799</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>6.53895892256346</v>
+        <v>0.111195</v>
       </c>
       <c r="N12">
-        <v>6.53895892256346</v>
+        <v>0.333585</v>
       </c>
       <c r="O12">
-        <v>0.09128805587689628</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P12">
-        <v>0.09128805587689628</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q12">
-        <v>60.94684857929943</v>
+        <v>2.74423025667</v>
       </c>
       <c r="R12">
-        <v>60.94684857929943</v>
+        <v>24.69807231003</v>
       </c>
       <c r="S12">
-        <v>0.01172972766744301</v>
+        <v>0.0003764165919381658</v>
       </c>
       <c r="T12">
-        <v>0.01172972766744301</v>
+        <v>0.0003764165919381658</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.320573703100511</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H13">
-        <v>9.320573703100511</v>
+        <v>74.038318</v>
       </c>
       <c r="I13">
-        <v>0.1284913733211799</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J13">
-        <v>0.1284913733211799</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.169131330974</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N13">
-        <v>53.169131330974</v>
+        <v>214.856537</v>
       </c>
       <c r="O13">
-        <v>0.7422751372729526</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P13">
-        <v>0.7422751372729526</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q13">
-        <v>495.5668073001737</v>
+        <v>1767.512956753863</v>
       </c>
       <c r="R13">
-        <v>495.5668073001737</v>
+        <v>15907.61661078477</v>
       </c>
       <c r="S13">
-        <v>0.09537595177036898</v>
+        <v>0.2424436512828107</v>
       </c>
       <c r="T13">
-        <v>0.09537595177036898</v>
+        <v>0.2424436512828107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.255437</v>
+      </c>
+      <c r="H14">
+        <v>30.766311</v>
+      </c>
+      <c r="I14">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="J14">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N14">
+        <v>51.97477</v>
+      </c>
+      <c r="O14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q14">
+        <v>177.67465977483</v>
+      </c>
+      <c r="R14">
+        <v>1599.07193797347</v>
+      </c>
+      <c r="S14">
+        <v>0.024371019794589</v>
+      </c>
+      <c r="T14">
+        <v>0.024371019794589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.255437</v>
+      </c>
+      <c r="H15">
+        <v>30.766311</v>
+      </c>
+      <c r="I15">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="J15">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N15">
+        <v>19.771439</v>
+      </c>
+      <c r="O15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q15">
+        <v>67.588249021281</v>
+      </c>
+      <c r="R15">
+        <v>608.2942411915291</v>
+      </c>
+      <c r="S15">
+        <v>0.009270846821188606</v>
+      </c>
+      <c r="T15">
+        <v>0.009270846821188608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.255437</v>
+      </c>
+      <c r="H16">
+        <v>30.766311</v>
+      </c>
+      <c r="I16">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="J16">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.111195</v>
+      </c>
+      <c r="N16">
+        <v>0.333585</v>
+      </c>
+      <c r="O16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q16">
+        <v>1.140353317215</v>
+      </c>
+      <c r="R16">
+        <v>10.263179854935</v>
+      </c>
+      <c r="S16">
+        <v>0.000156418328319259</v>
+      </c>
+      <c r="T16">
+        <v>0.000156418328319259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.255437</v>
+      </c>
+      <c r="H17">
+        <v>30.766311</v>
+      </c>
+      <c r="I17">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="J17">
+        <v>0.1345447224218162</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N17">
+        <v>214.856537</v>
+      </c>
+      <c r="O17">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P17">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q17">
+        <v>734.4825597472231</v>
+      </c>
+      <c r="R17">
+        <v>6610.343037725008</v>
+      </c>
+      <c r="S17">
+        <v>0.1007464374777194</v>
+      </c>
+      <c r="T17">
+        <v>0.1007464374777194</v>
       </c>
     </row>
   </sheetData>
